--- a/kursach/Книга1.xlsx
+++ b/kursach/Книга1.xlsx
@@ -153,14 +153,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Население</a:t>
+              <a:rPr lang="ru-RU" b="0" i="1">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Вся популяция</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> N</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="ru-RU" b="0">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1008,13 +1008,77 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" b="0" i="1">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Восприимчивые (незараженные) индивидуумы </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0" i="1">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>c 3 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" b="0" i="1">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>лет</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" b="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1023,13 +1087,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Население</a:t>
+              <a:t> </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> S</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1046,13 +1105,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1674,6 +1747,3749 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B3F7-4C4E-A311-DB2F4146FB4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1761422816"/>
+        <c:axId val="1761421984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1761422816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1761421984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1761421984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1761422816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" b="0" i="1">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Зараженные или находящиеся в инкубационном периоде</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" b="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11675297869319733"/>
+          <c:y val="7.6552250190694129E-2"/>
+          <c:w val="0.84899363307741871"/>
+          <c:h val="0.81605410307693227"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$2:$D$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.492000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105.605</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>109.764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>114.297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>119.113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>124.172</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>129.46199999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134.982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140.73500000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>146.727</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>152.96899999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>159.46799999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>166.23400000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>173.27799999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>180.60900000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>188.239</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>196.179</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>204.44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>213.03399999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>221.97300000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>231.27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240.93700000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250.98699999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>261.43400000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>272.29199999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>283.57400000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>295.29500000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>307.47000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>320.113</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>333.23899999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>346.86399999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>361.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>375.673</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>390.88900000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>406.666</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>423.02199999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>439.971</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>457.53199999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>475.71800000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>494.54700000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>514.03499999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>534.197</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>555.048</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>576.60400000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>598.87900000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>621.88800000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>645.64300000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>670.15800000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>695.44500000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>721.51400000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>748.37699999999995</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>776.04100000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>804.51499999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>833.80399999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>863.91399999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>894.84699999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>926.60500000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>959.18600000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>992.58799999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1026.806</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1061.83</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1097.652</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1134.2570000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1171.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1209.75</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1248.595</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1288.1389999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1328.3510000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1369.1980000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1410.6420000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1452.6410000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1495.15</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1538.1189999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1581.492</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1625.213</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1669.2170000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1713.4369999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1757.8009999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1802.2349999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1846.6569999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1890.9829999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1935.126</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1978.9949999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2022.4949999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2065.527</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2107.991</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2149.7849999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2190.8029999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2230.9389999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E04B-4137-AC06-BBD89DC1638C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1761422816"/>
+        <c:axId val="1761421984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1761422816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1761421984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1761421984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1761422816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" b="0" i="1">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Инфицированные с симптомами</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" b="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11675297869319733"/>
+          <c:y val="7.6552250190694129E-2"/>
+          <c:w val="0.84899363307741871"/>
+          <c:h val="0.81605410307693227"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$2:$E$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.073</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2640000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7030000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5780000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.3220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.5910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8710000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.1619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.4649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.78</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.1080000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.8040000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.5579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.9570000000000007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.372999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.804</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.253</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.718999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.202999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.706</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.228999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.771000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14.334</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14.917999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.523999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16.152000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16.803999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17.48</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18.18</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18.905000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19.655999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20.434000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.239000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22.071000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22.931999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23.821999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24.742000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25.692</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>26.672999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27.684999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>28.728999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>29.805</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30.914000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>32.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>33.231000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>34.44</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>35.683</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36.959000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>38.270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>39.613999999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>40.993000000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42.404000000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43.848999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45.326999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>46.837000000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>48.378</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>49.951000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>51.552999999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>53.183</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>54.841000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>56.526000000000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>58.234000000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>59.966000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>61.718000000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>63.488999999999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>65.275999999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>67.078000000000003</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>68.891000000000005</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>70.712999999999994</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>72.540999999999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>74.372</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>76.200999999999993</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>78.027000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>79.844999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>81.652000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>83.442999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>85.213999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>86.962999999999994</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>88.683000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-109E-4522-A96D-4D313ACFCB5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1761422816"/>
+        <c:axId val="1761421984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1761422816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1761421984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1761421984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1761422816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" b="0" i="1">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Вылеченные</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" b="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11675297869319733"/>
+          <c:y val="7.6552250190694129E-2"/>
+          <c:w val="0.84899363307741871"/>
+          <c:h val="0.81605410307693227"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$2:$F$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118.248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>215.00399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>315.20499999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>419.37799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>527.86900000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>640.94100000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>758.822</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>881.73199999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1009.889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1143.5139999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1282.837</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1428.0940000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1579.5309999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1737.402</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1901.973</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2073.518</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2252.3220000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2438.6799999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2632.8989999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2835.2979999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3046.2069999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3265.9659999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3494.93</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3733.4659999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3981.9540000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4240.7870000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4510.3710000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4791.1270000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5083.49</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5387.9080000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5704.8469999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6034.7839999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6378.2139999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6735.6469999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7107.607</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7494.6360000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7897.2910000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8316.1440000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8751.7839999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9204.8160000000007</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9675.8610000000008</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10165.556</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10674.554</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11203.522999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11753.146000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12324.121999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12917.164000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13533</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14172.369000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14836.026</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15524.736000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16239.275</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16980.43</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17748.996999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18545.777999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19371.582999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20227.226999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21113.527999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>22031.303</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>22981.37</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>23964.545999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>24981.64</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>26033.454000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>27120.780999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28244.399000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29405.072</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>30603.544999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>31840.537</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>33116.745999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>34432.837</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>35789.442999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>37187.160000000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>38626.544000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40108.101999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>41632.296999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43199.534</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44810.161999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>46464.466999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>48162.67</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>49904.919000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>51691.288999999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>53521.775000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>55396.288</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>57314.652999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>59276.606</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>61281.786</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>63329.737999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>65419.904000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>67551.629000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>69724.149000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77EC-4F45-8430-83C3FC28AF5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1761422816"/>
+        <c:axId val="1761421984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1761422816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1761421984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1761421984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1761422816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" b="0" i="1">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Умершие</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" b="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU" b="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11675297869319733"/>
+          <c:y val="7.6552250190694129E-2"/>
+          <c:w val="0.84899363307741871"/>
+          <c:h val="0.81605410307693227"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$G$2:$G$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.353</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.482</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.617</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.056</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.92</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.9790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.218</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.4669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.726</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.2759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.5670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.8710000000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.1870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.516</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.8570000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.2130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.9660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.3659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.7810000000000006</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.2119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.66</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.608000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.109</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11.63</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.17</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12.73</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.311</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13.914</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14.539</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>15.186</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15.856999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16.552</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>17.271000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18.015999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>18.786999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19.584</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20.408000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>21.260999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>22.140999999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>23.050999999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>23.99</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>24.959</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>25.959</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>26.99</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>28.052</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>29.146999999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>30.274999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>31.434999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>32.628</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>33.856000000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>35.116999999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>36.411999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>37.741</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>39.104999999999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40.503</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>41.936</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43.402999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44.904000000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>46.439</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>48.008000000000003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>49.61</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>51.244999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-869A-4520-BD82-7888052650C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1869,6 +5685,30 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2386,6 +6226,2070 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2912,9 +8816,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2942,9 +8846,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2960,6 +8864,134 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3238,7 +9270,7 @@
   <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5369,6 +11401,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>